--- a/data/pca/factorExposure/factorExposure_2010-03-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01448625543779791</v>
+        <v>-0.01698550148725455</v>
       </c>
       <c r="C2">
-        <v>-2.433884667841565e-05</v>
+        <v>0.001004411682634896</v>
       </c>
       <c r="D2">
-        <v>0.01118384420403506</v>
+        <v>0.008022332683631001</v>
       </c>
       <c r="E2">
-        <v>0.01567106725919766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-2.199172816902372e-05</v>
+      </c>
+      <c r="F2">
+        <v>0.009814273090248926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1253819114113938</v>
+        <v>-0.09337636384232102</v>
       </c>
       <c r="C4">
-        <v>0.02766489107157337</v>
+        <v>0.01567166429567932</v>
       </c>
       <c r="D4">
-        <v>0.06079076865286941</v>
+        <v>0.08448486328150477</v>
       </c>
       <c r="E4">
-        <v>0.003975362784284861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.03113543324797687</v>
+      </c>
+      <c r="F4">
+        <v>-0.03025797279292112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.120282193193448</v>
+        <v>-0.1549399849528719</v>
       </c>
       <c r="C6">
-        <v>-0.01593311263883702</v>
+        <v>0.02469495561795717</v>
       </c>
       <c r="D6">
-        <v>-0.007806993587686951</v>
+        <v>-0.02235649806726193</v>
       </c>
       <c r="E6">
-        <v>0.02093954138141626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01101408236038915</v>
+      </c>
+      <c r="F6">
+        <v>-0.05067072952872668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07474199196710471</v>
+        <v>-0.05931314126565679</v>
       </c>
       <c r="C7">
-        <v>-0.001862888962353565</v>
+        <v>-0.001080983260589755</v>
       </c>
       <c r="D7">
-        <v>0.06568165978064498</v>
+        <v>0.05282691451743655</v>
       </c>
       <c r="E7">
-        <v>0.04635469507561436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01435043441155348</v>
+      </c>
+      <c r="F7">
+        <v>-0.0480157905293164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05474031354543368</v>
+        <v>-0.05781328322799609</v>
       </c>
       <c r="C8">
-        <v>0.005609397326407562</v>
+        <v>-0.01339850707166647</v>
       </c>
       <c r="D8">
-        <v>0.03520690663057957</v>
+        <v>0.03260193589846443</v>
       </c>
       <c r="E8">
-        <v>0.02144864680001167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0153754604695657</v>
+      </c>
+      <c r="F8">
+        <v>0.03187114831777903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09245782051333613</v>
+        <v>-0.07128607404647641</v>
       </c>
       <c r="C9">
-        <v>0.03626213431577309</v>
+        <v>0.01165986971244038</v>
       </c>
       <c r="D9">
-        <v>0.04005899601202843</v>
+        <v>0.08422403463540616</v>
       </c>
       <c r="E9">
-        <v>0.01519920438982598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02558987830245416</v>
+      </c>
+      <c r="F9">
+        <v>-0.05178591042859509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09337356926413366</v>
+        <v>-0.09522610175795532</v>
       </c>
       <c r="C10">
-        <v>-0.1001367234164705</v>
+        <v>0.01821540177057487</v>
       </c>
       <c r="D10">
-        <v>-0.1530969402999682</v>
+        <v>-0.1696791836626911</v>
       </c>
       <c r="E10">
-        <v>-4.095295913429514e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03981178108724362</v>
+      </c>
+      <c r="F10">
+        <v>0.05401314567372813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08322232755630242</v>
+        <v>-0.08720605626184708</v>
       </c>
       <c r="C11">
-        <v>0.008405327185559407</v>
+        <v>0.01125904932500092</v>
       </c>
       <c r="D11">
-        <v>0.04851364290053338</v>
+        <v>0.1154616936026051</v>
       </c>
       <c r="E11">
-        <v>0.0373442393629151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04930785123172732</v>
+      </c>
+      <c r="F11">
+        <v>-0.01801819975954975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08616611558757069</v>
+        <v>-0.09173465168990881</v>
       </c>
       <c r="C12">
-        <v>0.01319849080091801</v>
+        <v>0.008766793908648797</v>
       </c>
       <c r="D12">
-        <v>0.07201817368466706</v>
+        <v>0.1247371493216128</v>
       </c>
       <c r="E12">
-        <v>0.04705614272119145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04911044201846251</v>
+      </c>
+      <c r="F12">
+        <v>-0.01865417718230922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03671514796338862</v>
+        <v>-0.04289591539165486</v>
       </c>
       <c r="C13">
-        <v>0.03502338992390808</v>
+        <v>0.003857680022265243</v>
       </c>
       <c r="D13">
-        <v>0.009002635500400483</v>
+        <v>0.04774603829877434</v>
       </c>
       <c r="E13">
-        <v>0.00199748558334863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01208775317709366</v>
+      </c>
+      <c r="F13">
+        <v>-0.01388744506883604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03097561368305644</v>
+        <v>-0.02231723999832053</v>
       </c>
       <c r="C14">
-        <v>-0.000598752178454669</v>
+        <v>0.01408214114184408</v>
       </c>
       <c r="D14">
-        <v>0.006016896099714394</v>
+        <v>0.03298072319868444</v>
       </c>
       <c r="E14">
-        <v>-0.004885569819609716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01863592751389499</v>
+      </c>
+      <c r="F14">
+        <v>-0.01798777840800378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02064297609507476</v>
+        <v>-0.0313725589748747</v>
       </c>
       <c r="C15">
-        <v>0.01564389839890594</v>
+        <v>0.005180010538327357</v>
       </c>
       <c r="D15">
-        <v>0.00151054346537317</v>
+        <v>0.04590217698765089</v>
       </c>
       <c r="E15">
-        <v>0.01521941716177257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.008636337825662281</v>
+      </c>
+      <c r="F15">
+        <v>-0.02905799827027429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09213908435743218</v>
+        <v>-0.07292160696957826</v>
       </c>
       <c r="C16">
-        <v>0.002625313039082121</v>
+        <v>0.002626164586170218</v>
       </c>
       <c r="D16">
-        <v>0.06446122027568371</v>
+        <v>0.1195064372089119</v>
       </c>
       <c r="E16">
-        <v>0.04556251551555402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06413548655808267</v>
+      </c>
+      <c r="F16">
+        <v>-0.02732531307906259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02405244072296082</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003900626184245976</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01951579501079985</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.006334515639622635</v>
+      </c>
+      <c r="F18">
+        <v>0.01725078663238086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05018442660715625</v>
+        <v>-0.06043848794904846</v>
       </c>
       <c r="C20">
-        <v>-0.00849211897307876</v>
+        <v>0.0003122880510422043</v>
       </c>
       <c r="D20">
-        <v>0.04456696092524434</v>
+        <v>0.07533585137092461</v>
       </c>
       <c r="E20">
-        <v>-0.002304541382505791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05578126569961634</v>
+      </c>
+      <c r="F20">
+        <v>-0.02636581248183659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03026860997471822</v>
+        <v>-0.03865060931303819</v>
       </c>
       <c r="C21">
-        <v>-0.004679021334877532</v>
+        <v>0.006828277815096772</v>
       </c>
       <c r="D21">
-        <v>0.0004344130279115841</v>
+        <v>0.0367173699313714</v>
       </c>
       <c r="E21">
-        <v>-0.03657762098911706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.007978109576440805</v>
+      </c>
+      <c r="F21">
+        <v>0.02226805872858277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03001414872952559</v>
+        <v>-0.04333521967580944</v>
       </c>
       <c r="C22">
-        <v>-0.0159424914795968</v>
+        <v>0.0009779652889481138</v>
       </c>
       <c r="D22">
-        <v>-0.0364983218748333</v>
+        <v>-0.0005763883291916358</v>
       </c>
       <c r="E22">
-        <v>0.07119728366959553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02755887645748857</v>
+      </c>
+      <c r="F22">
+        <v>0.003100957171253903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03022167507199385</v>
+        <v>-0.04338750488023824</v>
       </c>
       <c r="C23">
-        <v>-0.01610947652424696</v>
+        <v>0.0009999208194832073</v>
       </c>
       <c r="D23">
-        <v>-0.03600873318979012</v>
+        <v>-0.0004495876078745677</v>
       </c>
       <c r="E23">
-        <v>0.07300061272606011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02791424739800661</v>
+      </c>
+      <c r="F23">
+        <v>0.002636516467266575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09136282227891179</v>
+        <v>-0.07938681097840662</v>
       </c>
       <c r="C24">
-        <v>0.0006802910546743377</v>
+        <v>0.002904664411564005</v>
       </c>
       <c r="D24">
-        <v>0.06208467123502657</v>
+        <v>0.1195947176965427</v>
       </c>
       <c r="E24">
-        <v>0.03674034041440862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05208197351363635</v>
+      </c>
+      <c r="F24">
+        <v>-0.01963658227268295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09500868703473091</v>
+        <v>-0.08450742299205934</v>
       </c>
       <c r="C25">
-        <v>-0.0005088015579427774</v>
+        <v>0.00500756388880143</v>
       </c>
       <c r="D25">
-        <v>0.05016117160232367</v>
+        <v>0.108284015107333</v>
       </c>
       <c r="E25">
-        <v>0.04037675440335279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0347480375195157</v>
+      </c>
+      <c r="F25">
+        <v>-0.02770020266327242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03425229161695689</v>
+        <v>-0.05456369562425287</v>
       </c>
       <c r="C26">
-        <v>-0.03290173024208351</v>
+        <v>0.01450703856752304</v>
       </c>
       <c r="D26">
-        <v>-0.01540162230581199</v>
+        <v>0.04105886478863747</v>
       </c>
       <c r="E26">
-        <v>-0.002771585704509248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02684654297889843</v>
+      </c>
+      <c r="F26">
+        <v>0.0111101373256959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09425093621022845</v>
+        <v>-0.1435830963265494</v>
       </c>
       <c r="C28">
-        <v>-0.1169851997969207</v>
+        <v>0.01711867744533888</v>
       </c>
       <c r="D28">
-        <v>-0.3018759642405914</v>
+        <v>-0.2648601614737539</v>
       </c>
       <c r="E28">
-        <v>-0.001114727654895216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06973165163979279</v>
+      </c>
+      <c r="F28">
+        <v>-0.02928201845849341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03007307868983703</v>
+        <v>-0.02712896305202863</v>
       </c>
       <c r="C29">
-        <v>0.009931724216250305</v>
+        <v>0.008375637335763285</v>
       </c>
       <c r="D29">
-        <v>-0.0008214031206226818</v>
+        <v>0.0320325801479679</v>
       </c>
       <c r="E29">
-        <v>-0.000779624154796628</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01155079230873594</v>
+      </c>
+      <c r="F29">
+        <v>0.01349312450980857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1082158860657608</v>
+        <v>-0.06242023819556195</v>
       </c>
       <c r="C30">
-        <v>0.05571342246027464</v>
+        <v>0.00425208211845416</v>
       </c>
       <c r="D30">
-        <v>0.09162031210049865</v>
+        <v>0.08720623243592537</v>
       </c>
       <c r="E30">
-        <v>0.04511686893155867</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0248038947299538</v>
+      </c>
+      <c r="F30">
+        <v>-0.1014547386782624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03155439991042708</v>
+        <v>-0.04810995506588844</v>
       </c>
       <c r="C31">
-        <v>0.0006915377325944451</v>
+        <v>0.0149702022424301</v>
       </c>
       <c r="D31">
-        <v>0.02620422318751296</v>
+        <v>0.02630445158967724</v>
       </c>
       <c r="E31">
-        <v>0.01535723671430471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02806843590129438</v>
+      </c>
+      <c r="F31">
+        <v>0.006154343640357126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06134375514314445</v>
+        <v>-0.04790269615482501</v>
       </c>
       <c r="C32">
-        <v>-0.01422970360200735</v>
+        <v>-0.0005447718653862728</v>
       </c>
       <c r="D32">
-        <v>0.02677131175501002</v>
+        <v>0.03153986348406881</v>
       </c>
       <c r="E32">
-        <v>-0.002358831272338958</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.03008667260239059</v>
+      </c>
+      <c r="F32">
+        <v>-0.002257596883518492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09917899667815745</v>
+        <v>-0.08943919221634339</v>
       </c>
       <c r="C33">
-        <v>0.03000235121737212</v>
+        <v>0.008308881316219513</v>
       </c>
       <c r="D33">
-        <v>0.04478289883428062</v>
+        <v>0.09730188567370845</v>
       </c>
       <c r="E33">
-        <v>0.08077134436577924</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04795816350083013</v>
+      </c>
+      <c r="F33">
+        <v>-0.0390851067654259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07898178380224706</v>
+        <v>-0.06720476843813647</v>
       </c>
       <c r="C34">
-        <v>-0.004257971046747339</v>
+        <v>0.01176953155688176</v>
       </c>
       <c r="D34">
-        <v>0.05949163213090393</v>
+        <v>0.1000796523552119</v>
       </c>
       <c r="E34">
-        <v>0.0460530812264253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03616787930385105</v>
+      </c>
+      <c r="F34">
+        <v>-0.03772665297656084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01333125449474104</v>
+        <v>-0.02440320077339132</v>
       </c>
       <c r="C35">
-        <v>0.0137147666513446</v>
+        <v>0.002337248641712697</v>
       </c>
       <c r="D35">
-        <v>0.005254277889396427</v>
+        <v>0.01156326848471009</v>
       </c>
       <c r="E35">
-        <v>0.0008473959881955603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01108179087675072</v>
+      </c>
+      <c r="F35">
+        <v>-0.008645659409309262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0279262682540561</v>
+        <v>-0.02444000668312772</v>
       </c>
       <c r="C36">
-        <v>0.0114124559005422</v>
+        <v>0.007299906464903305</v>
       </c>
       <c r="D36">
-        <v>-0.001407409452228735</v>
+        <v>0.03654857531932923</v>
       </c>
       <c r="E36">
-        <v>-0.0007545415865539089</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01752112859117547</v>
+      </c>
+      <c r="F36">
+        <v>-0.01429525366851865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.007236823986143636</v>
+        <v>-0.001514146218705992</v>
       </c>
       <c r="C38">
-        <v>0.001938414180430982</v>
+        <v>0.0002366415638027897</v>
       </c>
       <c r="D38">
-        <v>0.004694286584327196</v>
+        <v>0.0008980086794304083</v>
       </c>
       <c r="E38">
-        <v>0.005675699392693763</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001222695033427963</v>
+      </c>
+      <c r="F38">
+        <v>0.001327758620249616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.133996982208568</v>
+        <v>-0.1075430262133198</v>
       </c>
       <c r="C39">
-        <v>0.02506012292959025</v>
+        <v>0.01640089289892396</v>
       </c>
       <c r="D39">
-        <v>0.1005060394850626</v>
+        <v>0.1553963411956108</v>
       </c>
       <c r="E39">
-        <v>0.06875985446128759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06242613576003859</v>
+      </c>
+      <c r="F39">
+        <v>-0.02274663300417844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.003783659010248408</v>
+        <v>-0.03705989623596088</v>
       </c>
       <c r="C40">
-        <v>0.0003466106238809549</v>
+        <v>0.007029998555918935</v>
       </c>
       <c r="D40">
-        <v>0.02201300055824491</v>
+        <v>0.03356090877676023</v>
       </c>
       <c r="E40">
-        <v>-0.01297147651366057</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.002763719252903114</v>
+      </c>
+      <c r="F40">
+        <v>0.01196536691631296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02123735583458614</v>
+        <v>-0.02629022558300991</v>
       </c>
       <c r="C41">
-        <v>-0.02569345046137516</v>
+        <v>0.006513608824343176</v>
       </c>
       <c r="D41">
-        <v>0.007495914873047476</v>
+        <v>0.0115508906788989</v>
       </c>
       <c r="E41">
-        <v>0.006339171550009961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01218245604793903</v>
+      </c>
+      <c r="F41">
+        <v>0.008614271904821065</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03296982276878938</v>
+        <v>-0.04008985680102003</v>
       </c>
       <c r="C43">
-        <v>-0.02575581358568036</v>
+        <v>0.006596041824441135</v>
       </c>
       <c r="D43">
-        <v>0.01024002902136188</v>
+        <v>0.02171867570070172</v>
       </c>
       <c r="E43">
-        <v>0.02934453817599154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0244627192754571</v>
+      </c>
+      <c r="F43">
+        <v>0.01381748942705997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1332859369196907</v>
+        <v>-0.07584110813817226</v>
       </c>
       <c r="C44">
-        <v>0.06281924570944149</v>
+        <v>0.02144346209755629</v>
       </c>
       <c r="D44">
-        <v>0.1116183381037711</v>
+        <v>0.09539454399597574</v>
       </c>
       <c r="E44">
-        <v>0.05974829281684298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07570642596820201</v>
+      </c>
+      <c r="F44">
+        <v>-0.1813806092935376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01657375406719407</v>
+        <v>-0.02250627267271872</v>
       </c>
       <c r="C46">
-        <v>-0.02289881867019599</v>
+        <v>0.003482282686923642</v>
       </c>
       <c r="D46">
-        <v>-0.01469812252259324</v>
+        <v>0.01310708090641329</v>
       </c>
       <c r="E46">
-        <v>0.02935690044607879</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0234025025196513</v>
+      </c>
+      <c r="F46">
+        <v>5.159674030223556e-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03846254215686962</v>
+        <v>-0.05158801520604775</v>
       </c>
       <c r="C47">
-        <v>-0.006094287785214499</v>
+        <v>0.003200610295017407</v>
       </c>
       <c r="D47">
-        <v>0.01053253345431225</v>
+        <v>0.01372660963015063</v>
       </c>
       <c r="E47">
-        <v>-0.001343704308128915</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02257745212739603</v>
+      </c>
+      <c r="F47">
+        <v>0.04463730038250526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03559707017085552</v>
+        <v>-0.04744994989622663</v>
       </c>
       <c r="C48">
-        <v>0.008810309206285736</v>
+        <v>0.002520476378152818</v>
       </c>
       <c r="D48">
-        <v>-0.00930328612858477</v>
+        <v>0.05090958890595811</v>
       </c>
       <c r="E48">
-        <v>6.412181569970306e-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004639481999536673</v>
+      </c>
+      <c r="F48">
+        <v>-0.01081836756081502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2296856039351839</v>
+        <v>-0.2030592457081025</v>
       </c>
       <c r="C49">
-        <v>-0.05138766869500958</v>
+        <v>0.01760310402825261</v>
       </c>
       <c r="D49">
-        <v>0.03575429415192499</v>
+        <v>-0.009796567827374753</v>
       </c>
       <c r="E49">
-        <v>-0.009465808423433699</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03329042369476755</v>
+      </c>
+      <c r="F49">
+        <v>-0.02966675848480186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03872362325116434</v>
+        <v>-0.04809827458137136</v>
       </c>
       <c r="C50">
-        <v>-0.01215897756368888</v>
+        <v>0.01097971551829265</v>
       </c>
       <c r="D50">
-        <v>0.02620034200297691</v>
+        <v>0.02590760518267514</v>
       </c>
       <c r="E50">
-        <v>0.01001029812639929</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02982750030679594</v>
+      </c>
+      <c r="F50">
+        <v>-0.008005895936922211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01062282322282281</v>
+        <v>-0.002163661712831322</v>
       </c>
       <c r="C51">
-        <v>-0.006037996120868026</v>
+        <v>0.0005480704735691773</v>
       </c>
       <c r="D51">
-        <v>-0.01543010222938473</v>
+        <v>-0.002300364825911944</v>
       </c>
       <c r="E51">
-        <v>0.01567026610488931</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>4.954157167181319e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004696642004263847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1115009724729731</v>
+        <v>-0.1449072711190676</v>
       </c>
       <c r="C52">
-        <v>0.04787825511847044</v>
+        <v>0.0139729675721517</v>
       </c>
       <c r="D52">
-        <v>0.06112981276269665</v>
+        <v>0.05065077720478308</v>
       </c>
       <c r="E52">
-        <v>0.006257573575258996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02426797025178857</v>
+      </c>
+      <c r="F52">
+        <v>-0.03336591315757281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1624652313149571</v>
+        <v>-0.173949948490239</v>
       </c>
       <c r="C53">
-        <v>0.02294156385825406</v>
+        <v>0.01690085108071724</v>
       </c>
       <c r="D53">
-        <v>0.02508956514027195</v>
+        <v>0.01060634529964682</v>
       </c>
       <c r="E53">
-        <v>0.00362557961680165</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03589145123974539</v>
+      </c>
+      <c r="F53">
+        <v>-0.06640361604451417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04903314240214339</v>
+        <v>-0.02170557421966843</v>
       </c>
       <c r="C54">
-        <v>-0.0007487454300266557</v>
+        <v>0.01224069432152915</v>
       </c>
       <c r="D54">
-        <v>0.01890366194083177</v>
+        <v>0.03424817869395522</v>
       </c>
       <c r="E54">
-        <v>0.00787833547971266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0154722540995139</v>
+      </c>
+      <c r="F54">
+        <v>0.004012205697309578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08360629312906254</v>
+        <v>-0.1141687820666477</v>
       </c>
       <c r="C55">
-        <v>0.02824235081494545</v>
+        <v>0.01549526688490858</v>
       </c>
       <c r="D55">
-        <v>0.004898552209575394</v>
+        <v>0.01074679384586076</v>
       </c>
       <c r="E55">
-        <v>0.04338953307755041</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03123151631076541</v>
+      </c>
+      <c r="F55">
+        <v>-0.04485568876543385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1575216130215275</v>
+        <v>-0.177497748830839</v>
       </c>
       <c r="C56">
-        <v>0.01115906955189656</v>
+        <v>0.0143899212517102</v>
       </c>
       <c r="D56">
-        <v>0.0450060985326362</v>
+        <v>0.007063730203008809</v>
       </c>
       <c r="E56">
-        <v>0.02751375258518166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04071706371863415</v>
+      </c>
+      <c r="F56">
+        <v>-0.04320860542412437</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04650393618733394</v>
+        <v>-0.0464401458142425</v>
       </c>
       <c r="C58">
-        <v>-0.01331776277526942</v>
+        <v>0.001298324324767316</v>
       </c>
       <c r="D58">
-        <v>-0.0001421386292446736</v>
+        <v>0.06567239620052519</v>
       </c>
       <c r="E58">
-        <v>-0.01441322122688387</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02354598027701804</v>
+      </c>
+      <c r="F58">
+        <v>0.04435014406202901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1661531836721503</v>
+        <v>-0.1724053255289235</v>
       </c>
       <c r="C59">
-        <v>-0.09649239224850446</v>
+        <v>0.01773138304169878</v>
       </c>
       <c r="D59">
-        <v>-0.232335907612413</v>
+        <v>-0.2222126197557613</v>
       </c>
       <c r="E59">
-        <v>0.02531013640583356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04942708141227821</v>
+      </c>
+      <c r="F59">
+        <v>0.03089538067267661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2771904384846963</v>
+        <v>-0.2356375853674498</v>
       </c>
       <c r="C60">
-        <v>0.05910959195318832</v>
+        <v>-0.004200460147660838</v>
       </c>
       <c r="D60">
-        <v>0.1319663763698142</v>
+        <v>0.04647411477621557</v>
       </c>
       <c r="E60">
-        <v>-0.04248576772990387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01029026507179488</v>
+      </c>
+      <c r="F60">
+        <v>0.03210445865889409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1178780166406333</v>
+        <v>-0.08297162132615728</v>
       </c>
       <c r="C61">
-        <v>0.03650472968777467</v>
+        <v>0.01252383211503938</v>
       </c>
       <c r="D61">
-        <v>0.05465009648238425</v>
+        <v>0.1154283213230184</v>
       </c>
       <c r="E61">
-        <v>0.04121704790295416</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04231755526658024</v>
+      </c>
+      <c r="F61">
+        <v>-0.01213399938640859</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1572303715053134</v>
+        <v>-0.1702572688831801</v>
       </c>
       <c r="C62">
-        <v>0.009314230551599573</v>
+        <v>0.01794743614173461</v>
       </c>
       <c r="D62">
-        <v>0.03001849704203835</v>
+        <v>0.01079782882568701</v>
       </c>
       <c r="E62">
-        <v>0.01606010907333168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03645252501442113</v>
+      </c>
+      <c r="F62">
+        <v>-0.0236368716089968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04182022383288091</v>
+        <v>-0.04212379154486467</v>
       </c>
       <c r="C63">
-        <v>0.006273014873431306</v>
+        <v>0.002558849249644351</v>
       </c>
       <c r="D63">
-        <v>-0.008696185593032556</v>
+        <v>0.05443508142340201</v>
       </c>
       <c r="E63">
-        <v>0.01470330726679529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02176572640295243</v>
+      </c>
+      <c r="F63">
+        <v>-0.006533022512916276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09349708358092601</v>
+        <v>-0.1115589610464978</v>
       </c>
       <c r="C64">
-        <v>-0.002011327762452103</v>
+        <v>0.01109047341652439</v>
       </c>
       <c r="D64">
-        <v>0.02029005020162824</v>
+        <v>0.0437440443413156</v>
       </c>
       <c r="E64">
-        <v>0.004356626512683879</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02091225547438857</v>
+      </c>
+      <c r="F64">
+        <v>-0.02574258681480766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1179670914180959</v>
+        <v>-0.1460514103263798</v>
       </c>
       <c r="C65">
-        <v>0.01523184565971343</v>
+        <v>0.03134911603824148</v>
       </c>
       <c r="D65">
-        <v>-0.01929028049642259</v>
+        <v>-0.04256554189298883</v>
       </c>
       <c r="E65">
-        <v>-0.002213613364041592</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.0005767206142076031</v>
+      </c>
+      <c r="F65">
+        <v>-0.05008785429584649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.155311939310306</v>
+        <v>-0.1285161757224725</v>
       </c>
       <c r="C66">
-        <v>0.02764619824190676</v>
+        <v>0.01415464205720477</v>
       </c>
       <c r="D66">
-        <v>0.1318254823614205</v>
+        <v>0.1442445694801104</v>
       </c>
       <c r="E66">
-        <v>0.08175287390048833</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06914619731119699</v>
+      </c>
+      <c r="F66">
+        <v>-0.02814031823014324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06861529741354468</v>
+        <v>-0.06202669093333902</v>
       </c>
       <c r="C67">
-        <v>0.03813797073361617</v>
+        <v>0.002845314291124227</v>
       </c>
       <c r="D67">
-        <v>0.01509124091063333</v>
+        <v>0.05391817726237225</v>
       </c>
       <c r="E67">
-        <v>0.08147149677938588</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01782882622586258</v>
+      </c>
+      <c r="F67">
+        <v>0.03991323559362377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08667189508859977</v>
+        <v>-0.1172509245730451</v>
       </c>
       <c r="C68">
-        <v>-0.100241591162093</v>
+        <v>0.02766408449576826</v>
       </c>
       <c r="D68">
-        <v>-0.2579530660171857</v>
+        <v>-0.2607074324094834</v>
       </c>
       <c r="E68">
-        <v>-0.004669882442436893</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08847949728160363</v>
+      </c>
+      <c r="F68">
+        <v>-0.03193840430009764</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03385645833914061</v>
+        <v>-0.0390543325902076</v>
       </c>
       <c r="C69">
-        <v>0.01074319484649574</v>
+        <v>0.0009003970557834774</v>
       </c>
       <c r="D69">
-        <v>-0.01446115603396397</v>
+        <v>0.00959032979622337</v>
       </c>
       <c r="E69">
-        <v>0.02478762332465393</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02439421795756981</v>
+      </c>
+      <c r="F69">
+        <v>0.01027791492770098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03122901384699471</v>
+        <v>-0.06209619232461595</v>
       </c>
       <c r="C70">
-        <v>0.02274418114394581</v>
+        <v>-0.02876971668911888</v>
       </c>
       <c r="D70">
-        <v>-0.02180758272647023</v>
+        <v>0.02994604686511627</v>
       </c>
       <c r="E70">
-        <v>0.02989132824159555</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.0497999442412742</v>
+      </c>
+      <c r="F70">
+        <v>0.2679048428536325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09950334476493765</v>
+        <v>-0.1365339469757253</v>
       </c>
       <c r="C71">
-        <v>-0.1045100254691114</v>
+        <v>0.03193778048107059</v>
       </c>
       <c r="D71">
-        <v>-0.2778012497303955</v>
+        <v>-0.2753526077639066</v>
       </c>
       <c r="E71">
-        <v>0.00830398043202063</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09727516871254351</v>
+      </c>
+      <c r="F71">
+        <v>-0.03810626440378056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1395220323488129</v>
+        <v>-0.1409899303761422</v>
       </c>
       <c r="C72">
-        <v>-0.02512279591360268</v>
+        <v>0.02496512052660955</v>
       </c>
       <c r="D72">
-        <v>-0.01123438033325549</v>
+        <v>0.004834150075118141</v>
       </c>
       <c r="E72">
-        <v>0.009779465314776376</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04475345164816717</v>
+      </c>
+      <c r="F72">
+        <v>-0.02565374026925376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2318791206919655</v>
+        <v>-0.2031012837498391</v>
       </c>
       <c r="C73">
-        <v>-0.007419457901956385</v>
+        <v>0.01166190638899471</v>
       </c>
       <c r="D73">
-        <v>0.0508148952769811</v>
+        <v>0.01544429388241782</v>
       </c>
       <c r="E73">
-        <v>0.08303851011673129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06421544704198362</v>
+      </c>
+      <c r="F73">
+        <v>-0.03287000885729059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1144106437522827</v>
+        <v>-0.09441248352123914</v>
       </c>
       <c r="C74">
-        <v>-0.005534870305193663</v>
+        <v>0.01224468254495879</v>
       </c>
       <c r="D74">
-        <v>0.04358066848728496</v>
+        <v>0.02042986078578771</v>
       </c>
       <c r="E74">
-        <v>0.03266349050188108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04860269550924316</v>
+      </c>
+      <c r="F74">
+        <v>-0.04886491113121574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1242097014352774</v>
+        <v>-0.1293790258213538</v>
       </c>
       <c r="C75">
-        <v>0.00504736819179079</v>
+        <v>0.02654705121902834</v>
       </c>
       <c r="D75">
-        <v>0.05491592657429692</v>
+        <v>0.03418375997360142</v>
       </c>
       <c r="E75">
-        <v>0.01846351806429671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06058393560307312</v>
+      </c>
+      <c r="F75">
+        <v>-0.01237974841276776</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01677458512478907</v>
+        <v>-0.003225511504484981</v>
       </c>
       <c r="C76">
-        <v>-0.006466895124099947</v>
+        <v>0.0007794873922038519</v>
       </c>
       <c r="D76">
-        <v>-0.01491048032653107</v>
+        <v>-0.002284676518574969</v>
       </c>
       <c r="E76">
-        <v>0.009779841642002653</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0004850090338426555</v>
+      </c>
+      <c r="F76">
+        <v>-0.003877752357965589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0761433101837362</v>
+        <v>-0.07821064338986915</v>
       </c>
       <c r="C77">
-        <v>0.04350838703273779</v>
+        <v>0.008641898726392537</v>
       </c>
       <c r="D77">
-        <v>0.1098572393882413</v>
+        <v>0.1180243472960963</v>
       </c>
       <c r="E77">
-        <v>-0.0003519919983394504</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04040945695806555</v>
+      </c>
+      <c r="F77">
+        <v>-0.03176116192761137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1171349541195751</v>
+        <v>-0.1037949064719505</v>
       </c>
       <c r="C78">
-        <v>-0.0777518736977767</v>
+        <v>0.03989315331587807</v>
       </c>
       <c r="D78">
-        <v>0.07275578554609502</v>
+        <v>0.1185442791061588</v>
       </c>
       <c r="E78">
-        <v>0.1639212399648745</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08264933837821113</v>
+      </c>
+      <c r="F78">
+        <v>-0.06208888020579739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1314987443570766</v>
+        <v>-0.1640372384926941</v>
       </c>
       <c r="C79">
-        <v>-0.02573003561680496</v>
+        <v>0.02063302622380258</v>
       </c>
       <c r="D79">
-        <v>0.05893904091697565</v>
+        <v>0.01959373124346535</v>
       </c>
       <c r="E79">
-        <v>0.01011056248492217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.04877923466045319</v>
+      </c>
+      <c r="F79">
+        <v>-0.004487034863115048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08468800673715718</v>
+        <v>-0.08074783078100835</v>
       </c>
       <c r="C80">
-        <v>0.0494592459394621</v>
+        <v>-0.0009418832143151096</v>
       </c>
       <c r="D80">
-        <v>0.06666410641812205</v>
+        <v>0.05572333709815994</v>
       </c>
       <c r="E80">
-        <v>0.05915719326148688</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03542087509414215</v>
+      </c>
+      <c r="F80">
+        <v>0.01952831146296045</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1419944675694415</v>
+        <v>-0.1230742422726523</v>
       </c>
       <c r="C81">
-        <v>-0.003400427859604747</v>
+        <v>0.03038450852149198</v>
       </c>
       <c r="D81">
-        <v>0.06645917272505644</v>
+        <v>0.01761428502886362</v>
       </c>
       <c r="E81">
-        <v>0.02847471886272703</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06039192364604808</v>
+      </c>
+      <c r="F81">
+        <v>-0.005658256375943324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1661746704477885</v>
+        <v>-0.1641969403207105</v>
       </c>
       <c r="C82">
-        <v>0.02364105673462198</v>
+        <v>0.02251092951371806</v>
       </c>
       <c r="D82">
-        <v>0.04415293128656792</v>
+        <v>0.01203608528858175</v>
       </c>
       <c r="E82">
-        <v>0.03044563590511987</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03495905760986684</v>
+      </c>
+      <c r="F82">
+        <v>-0.06765527062954835</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.080107167522401</v>
+        <v>-0.06233075922462701</v>
       </c>
       <c r="C83">
-        <v>0.03262496305274826</v>
+        <v>0.003020324531739658</v>
       </c>
       <c r="D83">
-        <v>0.05247002604438337</v>
+        <v>0.05093054265188816</v>
       </c>
       <c r="E83">
-        <v>-0.04097260469741879</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005652069779750286</v>
+      </c>
+      <c r="F83">
+        <v>0.04403575185136784</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07422399940340699</v>
+        <v>-0.05888938468678431</v>
       </c>
       <c r="C84">
-        <v>0.0125665897112841</v>
+        <v>0.01058940112570557</v>
       </c>
       <c r="D84">
-        <v>-0.006628162638112138</v>
+        <v>0.06518373315842271</v>
       </c>
       <c r="E84">
-        <v>-0.01485419488232908</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003968890263379904</v>
+      </c>
+      <c r="F84">
+        <v>-0.0108265546025271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1253876337116641</v>
+        <v>-0.1387403854791246</v>
       </c>
       <c r="C85">
-        <v>-0.003068962047565918</v>
+        <v>0.02632237723393915</v>
       </c>
       <c r="D85">
-        <v>0.03409934683601713</v>
+        <v>0.01483156522201421</v>
       </c>
       <c r="E85">
-        <v>0.02027714144661725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04144687533348556</v>
+      </c>
+      <c r="F85">
+        <v>-0.04497963359461406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1366416687560147</v>
+        <v>-0.09454757714938546</v>
       </c>
       <c r="C86">
-        <v>-0.269974622502243</v>
+        <v>-0.007040278417398915</v>
       </c>
       <c r="D86">
-        <v>0.1970036650022031</v>
+        <v>0.02191675297366717</v>
       </c>
       <c r="E86">
-        <v>-0.8882766355807408</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1483936322789745</v>
+      </c>
+      <c r="F86">
+        <v>0.8752245503726388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1230154711068475</v>
+        <v>-0.09578932931292207</v>
       </c>
       <c r="C87">
-        <v>0.1150310654601733</v>
+        <v>0.02175271934268454</v>
       </c>
       <c r="D87">
-        <v>0.04825932264573959</v>
+        <v>0.09164325764662477</v>
       </c>
       <c r="E87">
-        <v>-0.0006881241431164858</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05351466106152577</v>
+      </c>
+      <c r="F87">
+        <v>-0.08215955749391429</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05095449072713613</v>
+        <v>-0.06095003308273191</v>
       </c>
       <c r="C88">
-        <v>-0.00806500657702388</v>
+        <v>0.002385295503271256</v>
       </c>
       <c r="D88">
-        <v>0.02375857934428893</v>
+        <v>0.05385739320894384</v>
       </c>
       <c r="E88">
-        <v>0.03180790043826572</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02736891786656601</v>
+      </c>
+      <c r="F88">
+        <v>-0.009272966922575133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.149876105297621</v>
+        <v>-0.1359926473527818</v>
       </c>
       <c r="C89">
-        <v>-0.1392035359313616</v>
+        <v>0.01003479485653204</v>
       </c>
       <c r="D89">
-        <v>-0.3398922655317427</v>
+        <v>-0.253478793539478</v>
       </c>
       <c r="E89">
-        <v>-0.004875011870513856</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.09188996318099343</v>
+      </c>
+      <c r="F89">
+        <v>-0.01676430589101588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1093214900833186</v>
+        <v>-0.1480027498740443</v>
       </c>
       <c r="C90">
-        <v>-0.11333539290579</v>
+        <v>0.02769915858721717</v>
       </c>
       <c r="D90">
-        <v>-0.2720127753070754</v>
+        <v>-0.2658987915322071</v>
       </c>
       <c r="E90">
-        <v>-0.005285174146934617</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1099813646554883</v>
+      </c>
+      <c r="F90">
+        <v>-0.0207282177942649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08682054708484477</v>
+        <v>-0.1194373508826966</v>
       </c>
       <c r="C91">
-        <v>-0.001519515192530415</v>
+        <v>0.01698698871301303</v>
       </c>
       <c r="D91">
-        <v>0.04075641434011732</v>
+        <v>-0.008889117708932363</v>
       </c>
       <c r="E91">
-        <v>-0.003606056272251104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05817469588037347</v>
+      </c>
+      <c r="F91">
+        <v>0.01655320651690684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1254698092226274</v>
+        <v>-0.1502392196582615</v>
       </c>
       <c r="C92">
-        <v>-0.1123242245836542</v>
+        <v>0.01938529835158822</v>
       </c>
       <c r="D92">
-        <v>-0.3084740838985185</v>
+        <v>-0.2921777248226082</v>
       </c>
       <c r="E92">
-        <v>-0.01418206780243809</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1045297037685835</v>
+      </c>
+      <c r="F92">
+        <v>-0.01498871509458649</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1158194936307124</v>
+        <v>-0.1520848702963976</v>
       </c>
       <c r="C93">
-        <v>-0.1224552201584359</v>
+        <v>0.02372585171984552</v>
       </c>
       <c r="D93">
-        <v>-0.3031450291401823</v>
+        <v>-0.2655383064386728</v>
       </c>
       <c r="E93">
-        <v>-0.02714839060940612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07677034911107639</v>
+      </c>
+      <c r="F93">
+        <v>-0.01544208666542983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.14725150556879</v>
+        <v>-0.1326340491214454</v>
       </c>
       <c r="C94">
-        <v>0.004273646940508037</v>
+        <v>0.0236990269103807</v>
       </c>
       <c r="D94">
-        <v>0.04782556379855171</v>
+        <v>0.04567604209692427</v>
       </c>
       <c r="E94">
-        <v>0.07081058757095421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06129967852858675</v>
+      </c>
+      <c r="F94">
+        <v>-0.03076465542910769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1155012780805538</v>
+        <v>-0.1259085974556883</v>
       </c>
       <c r="C95">
-        <v>-0.001968793022981918</v>
+        <v>0.0046253252549717</v>
       </c>
       <c r="D95">
-        <v>0.04075668638816526</v>
+        <v>0.09047382492530821</v>
       </c>
       <c r="E95">
-        <v>0.03241021819978843</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04542329529540554</v>
+      </c>
+      <c r="F95">
+        <v>0.01340234052729935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01329075728801973</v>
+        <v>-0.09904273796031418</v>
       </c>
       <c r="C96">
-        <v>0.002367040739659054</v>
+        <v>-0.9887229318224112</v>
       </c>
       <c r="D96">
-        <v>-0.00129814015913493</v>
+        <v>-0.03599174000540938</v>
       </c>
       <c r="E96">
-        <v>-0.0008047507590320601</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05828837234309357</v>
+      </c>
+      <c r="F96">
+        <v>-0.04589757123156047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1711058913903807</v>
+        <v>-0.1905419977758862</v>
       </c>
       <c r="C97">
-        <v>-0.03167231357815655</v>
+        <v>-0.009314870036582604</v>
       </c>
       <c r="D97">
-        <v>0.03693057309704499</v>
+        <v>-0.01894930375759868</v>
       </c>
       <c r="E97">
-        <v>0.04021348391912326</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01293391935548318</v>
+      </c>
+      <c r="F97">
+        <v>0.152266739468464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2441352679125801</v>
+        <v>-0.2053387786008074</v>
       </c>
       <c r="C98">
-        <v>0.03065499234995285</v>
+        <v>0.007118523150299847</v>
       </c>
       <c r="D98">
-        <v>-0.02530569656505488</v>
+        <v>0.009603642876566794</v>
       </c>
       <c r="E98">
-        <v>-0.09768084071746488</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.097090871440051</v>
+      </c>
+      <c r="F98">
+        <v>0.1091110473614239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0421334029028787</v>
+        <v>-0.05568174920859954</v>
       </c>
       <c r="C99">
-        <v>-0.02191643514931984</v>
+        <v>-0.004249828858248075</v>
       </c>
       <c r="D99">
-        <v>-0.003750802337423038</v>
+        <v>0.03760704873643364</v>
       </c>
       <c r="E99">
-        <v>0.04949460663962987</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02511724626104716</v>
+      </c>
+      <c r="F99">
+        <v>-0.002675832952213056</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.09830288129677883</v>
+        <v>-0.1227938690914767</v>
       </c>
       <c r="C100">
-        <v>0.8672049015358594</v>
+        <v>-0.05252613292231768</v>
       </c>
       <c r="D100">
-        <v>-0.3096158307872462</v>
+        <v>0.3495827937226467</v>
       </c>
       <c r="E100">
-        <v>-0.2791061943291487</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8934873874869798</v>
+      </c>
+      <c r="F100">
+        <v>0.07273941181196443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02974004377303609</v>
+        <v>-0.02705842970156092</v>
       </c>
       <c r="C101">
-        <v>0.01032738185506075</v>
+        <v>0.008383039356256632</v>
       </c>
       <c r="D101">
-        <v>-0.0005501067661624469</v>
+        <v>0.03173307635672014</v>
       </c>
       <c r="E101">
-        <v>-0.0001786673602794668</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01106333633374123</v>
+      </c>
+      <c r="F101">
+        <v>0.01526322016890775</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
